--- a/GetLinks Timesheet_JUN_2021.xlsx
+++ b/GetLinks Timesheet_JUN_2021.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phoochaliaw/Documents/GetLinks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phoochaliaw/Documents/GitHub/Getlink-Timesheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1674F12-8EC5-EA42-BBA0-EAF64A8CFF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6B0FC2-A5C0-064A-8010-FC8141EC8380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3020" yWindow="500" windowWidth="25360" windowHeight="17020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -699,6 +699,7 @@
     <xf numFmtId="2" fontId="6" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -761,7 +762,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1169,7 +1169,7 @@
   <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1185,24 +1185,24 @@
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="47"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
     </row>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="51"/>
+      <c r="B2" s="52"/>
       <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1211,19 +1211,19 @@
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="49"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="50"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="51"/>
+      <c r="B3" s="52"/>
       <c r="C3" s="9"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="51"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1247,17 +1247,17 @@
       <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="51"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="7"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="51"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="52"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1310,30 +1310,30 @@
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="59" t="s">
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="59"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="16" t="s">
         <v>11</v>
       </c>
@@ -1473,7 +1473,7 @@
       <c r="L12" s="37">
         <v>0</v>
       </c>
-      <c r="M12" s="73" t="s">
+      <c r="M12" s="39" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2160,10 +2160,12 @@
       <c r="F31" s="36">
         <v>0.54166666666666663</v>
       </c>
-      <c r="G31" s="36"/>
+      <c r="G31" s="36">
+        <v>0.75</v>
+      </c>
       <c r="H31" s="37">
         <f t="shared" si="1"/>
-        <v>-10</v>
+        <v>8</v>
       </c>
       <c r="I31" s="37">
         <f t="shared" si="2"/>
@@ -2501,17 +2503,17 @@
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14"/>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
       <c r="H41" s="38">
         <f>SUM(H10:H40)</f>
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="I41" s="38">
         <f>SUM(I10:I40)</f>
@@ -2548,41 +2550,41 @@
       <c r="B43" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="65"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="66"/>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="17"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="67"/>
-      <c r="F44" s="67"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="67"/>
-      <c r="K44" s="68"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="69"/>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="17"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="70"/>
-      <c r="F45" s="70"/>
-      <c r="G45" s="70"/>
-      <c r="H45" s="70"/>
-      <c r="I45" s="70"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="71"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="72"/>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
@@ -2604,19 +2606,19 @@
       </c>
       <c r="C47" s="21"/>
       <c r="D47" s="21"/>
-      <c r="E47" s="41" t="s">
+      <c r="E47" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
       <c r="I47" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J47" s="72">
+      <c r="J47" s="73">
         <v>44378</v>
       </c>
-      <c r="K47" s="44"/>
+      <c r="K47" s="45"/>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
@@ -2638,17 +2640,17 @@
       </c>
       <c r="C49" s="21"/>
       <c r="D49" s="21"/>
-      <c r="E49" s="41" t="s">
+      <c r="E49" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
       <c r="I49" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="45"/>
     </row>
     <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="29"/>
@@ -2664,41 +2666,41 @@
       <c r="K50" s="32"/>
     </row>
     <row r="51" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="J51" s="39"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="39"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+      <c r="L51" s="40"/>
     </row>
     <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
     </row>
     <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="16">
